--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,36 +43,39 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,16 +85,19 @@
     <t>no</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -112,85 +118,88 @@
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>protect</t>
@@ -557,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -676,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -726,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,16 +806,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -826,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.863013698630137</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.9216710182767625</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8529411764705882</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6957364341085271</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>359</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>359</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.88125</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.88125</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6308724832214765</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8793103448275862</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5888888888888889</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C16">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8679245283018868</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.509090909090909</v>
+        <v>0.575</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,37 +1385,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4909090909090909</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>27</v>
       </c>
-      <c r="D18">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>28</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.48</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L19">
         <v>32</v>
@@ -1468,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2936507936507937</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7936507936507936</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1474530831099196</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>318</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,12 +1627,36 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.2896825396825397</v>
+      </c>
+      <c r="C23">
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>179</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>0.75</v>
@@ -1648,17 +1681,41 @@
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.1715817694369973</v>
+      </c>
+      <c r="C24">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>309</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.7448979591836735</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1667,24 +1724,24 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.74</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1701,16 +1758,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.7238493723849372</v>
+        <v>0.74</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1722,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.7021276595744681</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1748,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1774,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.651685393258427</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1800,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1826,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.6222222222222222</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1852,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.6078431372549019</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1878,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.5068493150684932</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1904,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.453125</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1930,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4230769230769231</v>
+        <v>0.4375</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1956,7 +2013,33 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
